--- a/biology/Zoologie/Dendrophidion_brunneum/Dendrophidion_brunneum.xlsx
+++ b/biology/Zoologie/Dendrophidion_brunneum/Dendrophidion_brunneum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dendrophidion brunneum est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dendrophidion brunneum est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Équateur ;
 au Pérou, dans les régions de Cajamarca, Piura et Tumbes.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description[2] Günther indique que le spécimen en sa possession mesure environ 100 cm dont 30 cm pour la queue. Son dos est uniformément brun et sa face ventrale jaunâtre.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description Günther indique que le spécimen en sa possession mesure environ 100 cm dont 30 cm pour la queue. Son dos est uniformément brun et sa face ventrale jaunâtre.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Günther, 1858 : Catalogue of Colubrine Snakes in the Collection of the British Museum, London, p. 1-281 (texte intégral).</t>
         </is>
